--- a/wiegand-fsm.xlsx
+++ b/wiegand-fsm.xlsx
@@ -4,7 +4,7 @@
   <fileVersion lastEdited="4" lowestEdited="4" rupBuild="3820"/>
   <workbookPr date1904="0"/>
   <bookViews>
-    <workbookView activeTab="0" windowWidth="21980" windowHeight="14400"/>
+    <workbookView activeTab="0" windowWidth="19180" windowHeight="8440"/>
   </bookViews>
   <sheets>
     <sheet name="wiegand-states.csv" sheetId="1" r:id="rId1"/>
@@ -19,13 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="3" count="3">
-  <si>
-    <t>state\event</t>
-  </si>
-  <si>
-    <t>INITIAL</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1" count="1">
   <si>
     <t>reset\INITIAL</t>
   </si>
@@ -42,7 +36,7 @@
       <color rgb="FF000000"/>
       <name val="Sans"/>
       <vertAlign val="baseline"/>
-      <sz val="16"/>
+      <sz val="10"/>
       <strike val="0"/>
     </font>
   </fonts>
@@ -90,26 +84,28 @@
   </sheetPr>
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1">
-      <selection activeCell="A1" sqref="A1:L65536"/>
+    <sheetView topLeftCell="B1" workbookViewId="0" tabSelected="1">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" style="0" width="8.999459134615385" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" style="0" width="20.784465144230772" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" style="0" width="19.213131009615388" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" style="0" width="19.99879807692308" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" style="0" width="23.92713341346154" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" style="0" width="22.355799278846156" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" style="0" width="18.427463942307693" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" style="0" width="10.570793269230771" bestFit="1" customWidth="1"/>
-    <col min="13" max="256" style="0" width="9.142307692307693"/>
+    <col min="1" max="1" style="0" width="11.713581730769231" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" style="0" width="26.71268028846154" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" style="0" width="24.712800480769232" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" style="0" width="25.712740384615387" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" style="0" width="30.712439903846157" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" style="0" width="28.712560096153847" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" style="0" width="23.71286057692308" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" style="0" width="13.713461538461539" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" style="0" width="9.142307692307693"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" t="s">
-        <v>0</v>
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>state\event</t>
+        </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
@@ -168,8 +164,10 @@
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>INITIAL</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -182,16 +180,16 @@
         </is>
       </c>
       <c r="I2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -251,7 +249,7 @@
         </is>
       </c>
       <c r="L3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
